--- a/public/assets/template/matkul-template.xlsx
+++ b/public/assets/template/matkul-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\web-prodi-pwk\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A6535-ED56-4F6B-A466-FC1CFA4978E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EFE3A8-2D34-4F59-A220-2BF2A1A9DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Deskripsi</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet consectetur adipisicing elit.</t>
-  </si>
-  <si>
     <t>Nama Matkul</t>
   </si>
   <si>
@@ -85,6 +79,18 @@
   </si>
   <si>
     <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Kode Matkul</t>
+  </si>
+  <si>
+    <t>Mtk1</t>
+  </si>
+  <si>
+    <t>Mtk2</t>
+  </si>
+  <si>
+    <t>Mtk3</t>
   </si>
 </sst>
 </file>
@@ -498,14 +504,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6328125" style="1" customWidth="1"/>
@@ -515,7 +521,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -528,19 +534,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -548,19 +554,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -568,19 +574,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -588,19 +594,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template/matkul-template.xlsx
+++ b/public/assets/template/matkul-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\web-prodi-pwk\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EFE3A8-2D34-4F59-A220-2BF2A1A9DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426F521B-9EE4-49DE-8297-4D549F01905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -57,30 +57,6 @@
     <t>Jumlah SKS</t>
   </si>
   <si>
-    <t>Nama Dosen</t>
-  </si>
-  <si>
-    <t>Dosen 1</t>
-  </si>
-  <si>
-    <t>Dosen 2</t>
-  </si>
-  <si>
-    <t>Dosen 3</t>
-  </si>
-  <si>
-    <t>25/12/2024</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
-  </si>
-  <si>
-    <t>26/12/2024</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
     <t>Kode Matkul</t>
   </si>
   <si>
@@ -91,15 +67,15 @@
   </si>
   <si>
     <t>Mtk3</t>
+  </si>
+  <si>
+    <t>Semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,20 +136,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,10 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,35 +465,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86521A1-DC6B-4F40-AA0D-147BEF52CF9B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,19 +500,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,19 +517,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,19 +534,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
+      <c r="E4" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -597,21 +551,18 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
+      <c r="E5" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
